--- a/Random Forest Regressor/plot_infos_RFR_snv.xlsx
+++ b/Random Forest Regressor/plot_infos_RFR_snv.xlsx
@@ -500,7 +500,7 @@
         <v>0.9549102607319738</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9803058550367592</v>
+        <v>0.9803058550367587</v>
       </c>
       <c r="E2" t="n">
         <v>0.5526810223809039</v>
@@ -518,7 +518,7 @@
         <v>1.086432030503488</v>
       </c>
       <c r="J2" t="n">
-        <v>-1.195497074631731</v>
+        <v>-1.195497074631728</v>
       </c>
     </row>
     <row r="3">
@@ -536,7 +536,7 @@
         <v>0.6870711435575719</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8289596899771272</v>
+        <v>0.8289596899771273</v>
       </c>
       <c r="E3" t="n">
         <v>1.455990350855978</v>
@@ -587,10 +587,10 @@
         <v>55.65124165616047</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8621460568205639</v>
+        <v>0.8621460568205641</v>
       </c>
       <c r="J4" t="n">
-        <v>1.808056792196945</v>
+        <v>1.808056792196941</v>
       </c>
     </row>
     <row r="5">
@@ -608,7 +608,7 @@
         <v>0.9186068428177223</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9692395819212349</v>
+        <v>0.9692395819212353</v>
       </c>
       <c r="E5" t="n">
         <v>0.1595305742052288</v>
@@ -644,7 +644,7 @@
         <v>0.359765138263304</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6097442167460229</v>
+        <v>0.6097442167460227</v>
       </c>
       <c r="E6" t="n">
         <v>0.4474243750913586</v>
@@ -659,10 +659,10 @@
         <v>80.01467751210998</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8630114664034196</v>
+        <v>0.86301146640342</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1293010510392923</v>
+        <v>0.129301051039292</v>
       </c>
     </row>
     <row r="7">
@@ -680,7 +680,7 @@
         <v>0.7097505710820142</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8445256759703293</v>
+        <v>0.8445256759703292</v>
       </c>
       <c r="E7" t="n">
         <v>0.2766929962182816</v>
@@ -716,7 +716,7 @@
         <v>0.91018822721552</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9716562009742872</v>
+        <v>0.9716562009742863</v>
       </c>
       <c r="E8" t="n">
         <v>0.09384346491917105</v>
@@ -734,7 +734,7 @@
         <v>1.233729509909315</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.7741270133124729</v>
+        <v>-0.7741270133124747</v>
       </c>
     </row>
     <row r="9">
@@ -752,7 +752,7 @@
         <v>0.3542261182090831</v>
       </c>
       <c r="D9" t="n">
-        <v>0.597501279517528</v>
+        <v>0.5975012795175277</v>
       </c>
       <c r="E9" t="n">
         <v>0.2516388189129979</v>
@@ -767,10 +767,10 @@
         <v>80.36005735381957</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9909393718050666</v>
+        <v>0.9909393718050669</v>
       </c>
       <c r="J9" t="n">
-        <v>0.01363440025019447</v>
+        <v>0.01363440025019402</v>
       </c>
     </row>
     <row r="10">
@@ -824,7 +824,7 @@
         <v>0.9190177678219952</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9707424256623797</v>
+        <v>0.9707424256623802</v>
       </c>
       <c r="E11" t="n">
         <v>28.76752439754931</v>
@@ -860,7 +860,7 @@
         <v>0.3845636381826529</v>
       </c>
       <c r="D12" t="n">
-        <v>0.625424758752943</v>
+        <v>0.6254247587529429</v>
       </c>
       <c r="E12" t="n">
         <v>79.30474891056285</v>
@@ -932,7 +932,7 @@
         <v>0.9326205051322716</v>
       </c>
       <c r="D14" t="n">
-        <v>0.970780022007766</v>
+        <v>0.9707800220077658</v>
       </c>
       <c r="E14" t="n">
         <v>0.8167727598608747</v>
@@ -983,10 +983,10 @@
         <v>66.31051831175964</v>
       </c>
       <c r="I15" t="n">
-        <v>0.9025831581853421</v>
+        <v>0.9025831581853418</v>
       </c>
       <c r="J15" t="n">
-        <v>1.503379602762717</v>
+        <v>1.50337960276272</v>
       </c>
     </row>
     <row r="16">
